--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -49,19 +49,22 @@
   <si>
     <t>Collections:Priority queue.</t>
   </si>
+  <si>
+    <t>6hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,31 +89,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,26 +135,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,17 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -200,8 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +219,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -231,7 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +254,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +302,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,67 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,31 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,49 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,30 +579,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,8 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,151 +656,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,7 +1171,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1260,7 +1256,9 @@
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -52,17 +52,35 @@
   <si>
     <t>6hrs</t>
   </si>
+  <si>
+    <t>UseCase:Timesheet</t>
+  </si>
+  <si>
+    <t>12hrs</t>
+  </si>
+  <si>
+    <t>ER Diagram:Mini Project.</t>
+  </si>
+  <si>
+    <t>10hrs</t>
+  </si>
+  <si>
+    <t>REST:CRUD operations.</t>
+  </si>
+  <si>
+    <t>11hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -90,7 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,14 +123,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,21 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -188,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,23 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +227,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -254,7 +272,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,37 +356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,79 +434,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,8 +619,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,7 +653,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,26 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,151 +687,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1189,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1261,25 +1279,55 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44536</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44537</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44538</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_December_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -70,17 +70,71 @@
   <si>
     <t>11hrs</t>
   </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>Skipable task.</t>
+  </si>
+  <si>
+    <t>Hashmap:Coding.</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
+  <si>
+    <t>Solved Logical Problems.</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>Custom Work Item Handler with example.</t>
+  </si>
+  <si>
+    <t>Annotations in spring and springboot.</t>
+  </si>
+  <si>
+    <t>CoreJava:Exceptions.</t>
+  </si>
+  <si>
+    <t>Multi-threading with practical.</t>
+  </si>
+  <si>
+    <t>Spring MVC:Xml based and Annotation based.</t>
+  </si>
+  <si>
+    <t>SpringBoot: Aspect Oriented Programming.</t>
+  </si>
+  <si>
+    <t>Drools with sample program.</t>
+  </si>
+  <si>
+    <t>Java 8 Features.</t>
+  </si>
+  <si>
+    <t>File Handling concepts theory.</t>
+  </si>
+  <si>
+    <t>Sub-process with springboot.</t>
+  </si>
+  <si>
+    <t>SpringBoot:Logging.</t>
+  </si>
+  <si>
+    <t>Spring:IOC and Dependency Injection.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,37 +162,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +190,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +230,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +260,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -199,22 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +292,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,67 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +344,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +398,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,25 +458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,43 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,17 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,24 +711,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,159 +746,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1330,121 +1384,283 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44539</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44540</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44543</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44544</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44545</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44546</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44547</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44550</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44551</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44552</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44553</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44554</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44557</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44558</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44559</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44560</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44561</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
